--- a/results/gurobi_cplex_comparison/seed_20_k_5.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_5.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.015</v>
+        <v>0.163</v>
       </c>
       <c r="F2">
-        <v>0.101</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.022</v>
+        <v>0.231</v>
       </c>
       <c r="F3">
-        <v>0.153</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.024</v>
+        <v>0.309</v>
       </c>
       <c r="F4">
-        <v>0.135</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.031</v>
+        <v>0.398</v>
       </c>
       <c r="F5">
-        <v>0.103</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.048</v>
+        <v>0.518</v>
       </c>
       <c r="F6">
-        <v>0.189</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.046</v>
+        <v>0.633</v>
       </c>
       <c r="F7">
-        <v>0.534</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.022</v>
+        <v>0.704</v>
       </c>
       <c r="F8">
-        <v>0.378</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>0.885</v>
       </c>
       <c r="F9">
-        <v>0.143</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.017</v>
+        <v>0.969</v>
       </c>
       <c r="F10">
-        <v>0.226</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>1.106</v>
       </c>
       <c r="F11">
-        <v>0.028</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.011</v>
+        <v>1.264</v>
       </c>
       <c r="F12">
-        <v>0.039</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.051</v>
+        <v>1.475</v>
       </c>
       <c r="F13">
-        <v>2.98</v>
+        <v>3.512</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.011</v>
+        <v>1.642</v>
       </c>
       <c r="F14">
-        <v>0.045</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.081</v>
+        <v>1.936</v>
       </c>
       <c r="F15">
-        <v>1.656</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.154</v>
+        <v>2.22</v>
       </c>
       <c r="F16">
-        <v>1.26</v>
+        <v>1.823</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.031</v>
+        <v>2.329</v>
       </c>
       <c r="F17">
-        <v>40.475</v>
+        <v>14.643</v>
       </c>
     </row>
   </sheetData>
